--- a/Assignments/Assignment 1/Jonas Results Assignment 1.xlsx
+++ b/Assignments/Assignment 1/Jonas Results Assignment 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13EBDBF75601F199/Dokumente/Studium/Inhaltliches/Master/Semester 1/Survey_Tutorial/Survey_Tutorial_24_25/Assignments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive\Dokumente\Studium\Tutorials\Tutorat ISM\Survey_Tutorial_24_25\Assignments\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD9AFE5F-AB06-4D71-B439-7CA2681B05B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E12DDEB-C274-4984-AA0A-38758755BC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B0B0CCC1-638E-4546-BFCF-E03FFAB01020}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Matrikelnr</t>
   </si>
@@ -204,6 +204,15 @@
   </si>
   <si>
     <t>Emrecan Ulu</t>
+  </si>
+  <si>
+    <t>Jana Behrens</t>
+  </si>
+  <si>
+    <t>01/1390759</t>
+  </si>
+  <si>
+    <t>01/1369906</t>
   </si>
 </sst>
 </file>
@@ -213,7 +222,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,10 +259,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -589,141 +597,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E364372D-9141-491B-9818-DF289D7A27EF}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.140625" style="2"/>
+    <col min="3" max="3" width="11.109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>6.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -732,7 +740,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -743,7 +751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -754,7 +762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -765,7 +773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -776,7 +784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -787,7 +795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -798,7 +806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -809,7 +817,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -820,7 +828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -831,7 +839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -842,7 +850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -853,7 +861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -864,7 +872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -875,7 +883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -886,7 +894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -897,7 +905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -906,6 +914,17 @@
       </c>
       <c r="C28" s="1">
         <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="1">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
